--- a/medicine/Enfance/Allan_Ullman/Allan_Ullman.xlsx
+++ b/medicine/Enfance/Allan_Ullman/Allan_Ullman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allan Ullman, né le 18 novembre 1908[1] et mort le 15 mars 1982 à East Hampton, dans l’État de New York, est un auteur américain de roman policier. Il a également signé du pseudonyme Sandy Alan un ouvrage de littérature d’enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allan Ullman, né le 18 novembre 1908 et mort le 15 mars 1982 à East Hampton, dans l’État de New York, est un auteur américain de roman policier. Il a également signé du pseudonyme Sandy Alan un ouvrage de littérature d’enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études supérieures à l’université de Pennsylvanie. Entre 1931 et 1934, il travaille comme libraire, puis quitte cet emploi pour travailler au département publicité du magazine Time . En 1947, il est embauché par l’éditeur Random House pour s’occuper du secteur de la promotion et de la publicité. À partir de 1953, il occupe pour dix ans un poste d’assistant-directeur au Book of the Month Club (en), avant d'être jusqu’en 1975 le directeur littéraire de la division des livres éducatifs du New York Times.
 Sa carrière littéraire se résume à la rédaction de novélisations de scénarios de cinéma, notamment deux thrillers en collaboration avec Lucille Fletcher.  Il a également fait paraître un conte situé aux Indes, The Plaid Peacock (1965), sous le pseudonyme de Sandy Alan.
@@ -545,12 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sorry, Wrong Number (1948), en collaboration avec Lucille Fletcher Publié en français sous le titre Raccrochez, c'est une erreur, Paris, Éditions de la Paix, coll. Police judiciaire no 10, 1949 ; réédition, Paris, J'ai lu policier no 10, 1968 ; réédition, Paris, Librairie des Champs-Élysées, Le Masque no 2075, 1992
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sorry, Wrong Number (1948), en collaboration avec Lucille Fletcher Publié en français sous le titre Raccrochez, c'est une erreur, Paris, Éditions de la Paix, coll. Police judiciaire no 10, 1949 ; réédition, Paris, J'ai lu policier no 10, 1968 ; réédition, Paris, Librairie des Champs-Élysées, Le Masque no 2075, 1992
 Night Man (1951), en collaboration avec Lucille Fletcher Publié en français sous le titre L'Homme de la nuit, Lausanne, Ditis, coll. Détective Club-Suisse no 75, 1951 ; réédition, Paris, Ditis, coll. Détective Club no 44, 1951 ; réédition, Paris, J'ai lu no 38, 1965 ; réédition, Paris, Librairie des Champs-Élysées, coll. Le Masque no 2207, 1994
-Naked Spur (1955), en collaboration avec Rolfe Bloom
-Littérature d’enfance et de jeunesse
-The Plaid Peacock (1965)</t>
+Naked Spur (1955), en collaboration avec Rolfe Bloom</t>
         </is>
       </c>
     </row>
@@ -575,10 +592,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Plaid Peacock (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allan_Ullman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allan_Ullman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biographie et bibliographie
 (en) Biographie et bibliographie</t>
